--- a/TABLAPREMIER.xlsx
+++ b/TABLAPREMIER.xlsx
@@ -44,7 +44,7 @@
     <t>DG</t>
   </si>
   <si>
-    <t>LOGO</t>
+    <t>logo</t>
   </si>
   <si>
     <t>Liverpool</t>

--- a/TABLAPREMIER.xlsx
+++ b/TABLAPREMIER.xlsx
@@ -44,7 +44,7 @@
     <t>DG</t>
   </si>
   <si>
-    <t>logo</t>
+    <t>LOGO</t>
   </si>
   <si>
     <t>Liverpool</t>
